--- a/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
+++ b/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>TCID</t>
   </si>
@@ -141,6 +141,9 @@
     <t>ReviewBuble_Max_$.index,120</t>
   </si>
   <si>
+    <t>TS2</t>
+  </si>
+  <si>
     <t>Reset variable Index</t>
   </si>
   <si>
@@ -150,7 +153,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>TS2</t>
+    <t>TS3</t>
   </si>
   <si>
     <t>getAudioSource</t>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>Enable micro,60</t>
-  </si>
-  <si>
-    <t>TS3</t>
   </si>
   <si>
     <t>Click ghi âm</t>
@@ -1274,16 +1274,20 @@
       <c r="N2" s="19"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25" t="s">
@@ -1301,8 +1305,8 @@
       <c r="A4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>43</v>
+      <c r="B4" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>14</v>
@@ -1314,14 +1318,14 @@
         <v>12</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="21"/>
@@ -1344,14 +1348,14 @@
         <v>12</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="21"/>
@@ -1365,13 +1369,13 @@
         <v>36</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="34" t="s">
@@ -1390,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>19</v>
@@ -1402,14 +1406,14 @@
         <v>12</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
@@ -1423,7 +1427,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="18"/>
@@ -1432,14 +1436,14 @@
         <v>12</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -1453,27 +1457,27 @@
         <v>36</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -1484,16 +1488,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="40" t="s">
@@ -1512,7 +1516,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>63</v>
@@ -1596,7 +1600,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>72</v>
@@ -1624,7 +1628,7 @@
         <v>24</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="35" t="s">
@@ -4541,12 +4545,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B72" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C72" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4578,8 +4582,8 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B73" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4615,12 +4619,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B74" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4628,10 +4632,7 @@
       </c>
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
-      <c r="F74" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F74" s="55"/>
       <c r="G74" s="55"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
@@ -4655,8 +4656,8 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B75" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -4669,8 +4670,8 @@
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G75" s="55"/>
       <c r="H75" s="55"/>
@@ -4695,20 +4696,23 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B76" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
+      <c r="F76" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
       <c r="I76" s="55"/>
@@ -4732,16 +4736,16 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
@@ -4769,12 +4773,12 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B78" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C78" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4806,12 +4810,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B79" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C79" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4847,8 +4851,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B80" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C80" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4880,12 +4884,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C81" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4917,12 +4921,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B82" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C82" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4954,12 +4958,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B83" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C83" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4991,12 +4995,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B84" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C84" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5028,12 +5032,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B85" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C85" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5041,10 +5045,7 @@
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
-      <c r="F85" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F85" s="55"/>
       <c r="G85" s="55"/>
       <c r="H85" s="55"/>
       <c r="I85" s="55"/>
@@ -5068,12 +5069,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B86" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C86" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5081,7 +5082,10 @@
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
+      <c r="F86" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
       <c r="I86" s="55"/>
@@ -5105,12 +5109,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B87" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C87" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5142,12 +5146,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B88" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C88" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5155,10 +5159,7 @@
       </c>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
-      <c r="F88" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F88" s="55"/>
       <c r="G88" s="55"/>
       <c r="H88" s="55"/>
       <c r="I88" s="55"/>
@@ -5182,12 +5183,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B89" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C89" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5195,10 +5196,7 @@
       </c>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
-      <c r="F89" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F89" s="55"/>
       <c r="G89" s="55"/>
       <c r="H89" s="55"/>
       <c r="I89" s="55"/>
@@ -5222,12 +5220,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C90" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5236,8 +5234,8 @@
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
       <c r="F90" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
@@ -5262,12 +5260,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B91" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C91" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5275,7 +5273,10 @@
       </c>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
+      <c r="F91" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G91" s="55"/>
       <c r="H91" s="55"/>
       <c r="I91" s="55"/>
@@ -5299,12 +5300,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B92" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C92" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5312,7 +5313,10 @@
       </c>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
+      <c r="F92" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G92" s="55"/>
       <c r="H92" s="55"/>
       <c r="I92" s="55"/>
@@ -5336,20 +5340,20 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B93" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B93" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
       <c r="C93" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
-      <c r="F93" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F93" s="55"/>
       <c r="G93" s="55"/>
       <c r="H93" s="55"/>
       <c r="I93" s="55"/>
@@ -5373,20 +5377,20 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B94" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B94" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C94" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
-      <c r="F94" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F94" s="55"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
@@ -5410,20 +5414,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B95" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
+      <c r="B95" s="55"/>
       <c r="C95" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
+      <c r="F95" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G95" s="55"/>
       <c r="H95" s="55"/>
       <c r="I95" s="55"/>
@@ -5447,20 +5451,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
-      </c>
-      <c r="B96" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B96" s="55"/>
       <c r="C96" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
+      <c r="F96" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G96" s="55"/>
       <c r="H96" s="55"/>
       <c r="I96" s="55"/>
@@ -5484,12 +5488,12 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B97" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C97" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5521,23 +5525,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
-      <c r="F98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F98" s="55"/>
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
@@ -5561,16 +5562,16 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B99" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C99" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
@@ -5598,20 +5599,23 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
       </c>
       <c r="C100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
+      <c r="F100" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G100" s="55"/>
       <c r="H100" s="55"/>
       <c r="I100" s="55"/>
@@ -5634,9 +5638,18 @@
       <c r="Z100" s="55"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
+      <c r="A101" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B101" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C101" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
       <c r="F101" s="55"/>
@@ -5662,9 +5675,18 @@
       <c r="Z101" s="55"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
+      <c r="A102" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B102" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C102" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
       <c r="F102" s="55"/>
@@ -5690,12 +5712,24 @@
       <c r="Z102" s="55"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
+      <c r="A103" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B103" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C103" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
-      <c r="F103" s="55"/>
+      <c r="F103" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G103" s="55"/>
       <c r="H103" s="55"/>
       <c r="I103" s="55"/>

--- a/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
+++ b/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="B4veUSZlvY/pyf6sfblXckepzFHZwjnfY+vQOI9+MbY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Ql58kumbZd+KLHkKV63ArWcKzHBsVHo/pXG3NPLwE9k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>TCID</t>
   </si>
@@ -147,19 +147,19 @@
     <t>Reset variable Index</t>
   </si>
   <si>
-    <t>setIndexVariableFile</t>
+    <t>setVariableFile</t>
   </si>
   <si>
-    <t>0</t>
+    <t>index,0</t>
   </si>
   <si>
     <t>TS3</t>
   </si>
   <si>
-    <t>getAudioSource</t>
+    <t>getAudiosSource</t>
   </si>
   <si>
-    <t>FxSource</t>
+    <t>Managers/SoundManager/FxSource</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PD01Dialogue(Clone)")].turn[$.index].word[?(@.type=='question')].audio[*].file_path</t>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>BoxChatRecord/Text (TMP)</t>
-  </si>
-  <si>
-    <t>getText</t>
-  </si>
-  <si>
-    <t>BoxChatRecord/Text (TMP),TextMeshProUGUI</t>
   </si>
   <si>
     <t>Đợi mic enable</t>
@@ -464,6 +458,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -475,9 +472,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1194,7 +1188,7 @@
     <col customWidth="1" min="6" max="6" width="20.75"/>
     <col customWidth="1" min="7" max="7" width="10.63"/>
     <col customWidth="1" min="8" max="8" width="18.25"/>
-    <col customWidth="1" min="9" max="9" width="30.88"/>
+    <col customWidth="1" min="9" max="9" width="34.63"/>
     <col customWidth="1" min="10" max="10" width="25.5"/>
     <col customWidth="1" min="11" max="11" width="35.5"/>
     <col customWidth="1" min="13" max="13" width="24.63"/>
@@ -1317,14 +1311,16 @@
       <c r="G4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="31" t="s">
+      <c r="J4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="19"/>
@@ -1341,20 +1337,20 @@
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="31" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="L5" s="19"/>
@@ -1371,14 +1367,14 @@
       <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16"/>
@@ -1402,17 +1398,19 @@
       <c r="D7" s="16"/>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="31" t="s">
+      <c r="J7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>53</v>
       </c>
       <c r="L7" s="16"/>
@@ -1432,10 +1430,10 @@
       <c r="D8" s="16"/>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="31" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -1469,12 +1467,8 @@
       <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>60</v>
-      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="41"/>
       <c r="J9" s="16"/>
       <c r="K9" s="37" t="s">
         <v>56</v>
@@ -1491,19 +1485,19 @@
         <v>40</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="35"/>
+      <c r="H10" s="31"/>
       <c r="I10" s="41"/>
       <c r="J10" s="16"/>
       <c r="K10" s="42"/>
@@ -1519,19 +1513,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="35"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="41"/>
       <c r="J11" s="16"/>
       <c r="K11" s="42"/>
@@ -1544,16 +1538,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="E12" s="45" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>69</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="46" t="s">
@@ -1575,16 +1569,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="31" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="16"/>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="16"/>
@@ -1603,16 +1597,16 @@
         <v>40</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>64</v>
+        <v>70</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F14" s="16"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="16"/>
@@ -1631,14 +1625,14 @@
         <v>44</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="35" t="s">
-        <v>74</v>
+      <c r="D15" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16"/>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="35" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="16"/>
@@ -1649,18 +1643,34 @@
       <c r="M15" s="21"/>
       <c r="N15" s="19"/>
     </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="19"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L16 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L16 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L16 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -1672,7 +1682,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4 D6:D8">
@@ -1681,7 +1691,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5">
       <formula1>Keywords!$A$2:$A35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A16">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
@@ -1690,8 +1700,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12">
       <formula1>Keywords!$A$2:$A173</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3 D9:D15">
-      <formula1>Keywords!$A$2:$A15</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3 D9:D16">
+      <formula1>Keywords!$A$2:$A16</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6">
       <formula1>Keywords!$A$2:$A166</formula1>
@@ -1699,7 +1709,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4 H7 H9:H11">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H16">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
   </dataValidations>
@@ -1730,10 +1740,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1744,13 +1754,13 @@
         <v>15</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="50">
         <v>1.0</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="51"/>
@@ -3145,24 +3155,22 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
-      <c r="F36" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F36" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
       </c>
       <c r="G36" s="55"/>
       <c r="H36" s="55"/>
@@ -3187,20 +3195,25 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
+      <c r="F37" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
       <c r="I37" s="55"/>
@@ -3224,12 +3237,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3261,16 +3274,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
@@ -3298,16 +3311,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
@@ -3335,16 +3348,16 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
@@ -3372,22 +3385,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D42" s="55"/>
-      <c r="E42" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
@@ -3412,23 +3422,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="E43" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="55"/>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
@@ -3452,12 +3462,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3466,8 +3476,8 @@
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
@@ -3492,12 +3502,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3506,8 +3516,8 @@
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
       </c>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
@@ -3532,12 +3542,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3546,8 +3556,8 @@
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
@@ -3572,12 +3582,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3585,7 +3595,10 @@
       </c>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
+      <c r="F47" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
@@ -3609,12 +3622,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3646,12 +3659,12 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3683,12 +3696,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3696,10 +3709,7 @@
       </c>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
-      <c r="F50" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F50" s="55"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
@@ -3723,20 +3733,23 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="F51" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -3760,16 +3773,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
@@ -3797,8 +3810,8 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -3838,8 +3851,8 @@
         <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3871,23 +3884,20 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
-      <c r="F55" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F55" s="55"/>
       <c r="G55" s="55"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
@@ -3911,25 +3921,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D56" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+      <c r="D56" s="55"/>
       <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
+      <c r="F56" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="55"/>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
@@ -3953,18 +3961,23 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
-      <c r="D57" s="55"/>
+      <c r="D57" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="55"/>
       <c r="F57" s="55"/>
       <c r="G57" s="55"/>
@@ -3990,21 +4003,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
       <c r="G58" s="55"/>
@@ -4030,23 +4040,23 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="55"/>
+      <c r="D59" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
       <c r="E59" s="55"/>
-      <c r="F59" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F59" s="55"/>
       <c r="G59" s="55"/>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
@@ -4074,19 +4084,19 @@
         <v>getListAudioSource</v>
       </c>
       <c r="B60" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D60" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+      <c r="D60" s="55"/>
       <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
+      <c r="F60" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="55"/>
       <c r="H60" s="55"/>
       <c r="I60" s="55"/>
@@ -4110,22 +4120,22 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D61" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
+      <c r="E61" s="55"/>
       <c r="F61" s="55"/>
       <c r="G61" s="55"/>
       <c r="H61" s="55"/>
@@ -4150,19 +4160,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
+      <c r="E62" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="55"/>
       <c r="G62" s="55"/>
       <c r="H62" s="55"/>
@@ -4187,12 +4200,12 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4228,8 +4241,8 @@
         <v>isScale</v>
       </c>
       <c r="B64" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4261,21 +4274,18 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D65" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
       <c r="G65" s="55"/>
@@ -4301,27 +4311,23 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C66" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D66" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="55"/>
-      <c r="F66" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F66" s="55"/>
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
@@ -4345,8 +4351,8 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
@@ -4361,12 +4367,10 @@
       <c r="F67" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
+3. indexSplit:1")</f>
         <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
 2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+3. indexSplit:1</v>
       </c>
       <c r="G67" s="55"/>
       <c r="H67" s="55"/>
@@ -4395,13 +4399,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B68" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C68" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C68" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
+      <c r="F68" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G68" s="55"/>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
@@ -4425,17 +4441,14 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C69" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="55"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="55"/>
@@ -4462,26 +4475,20 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D70" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D70" s="55"/>
       <c r="E70" s="55"/>
-      <c r="F70" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F70" s="55"/>
       <c r="G70" s="55"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
@@ -4505,22 +4512,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="55"/>
       <c r="F71" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="55"/>
       <c r="H71" s="55"/>
@@ -4545,12 +4555,12 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4558,7 +4568,10 @@
       </c>
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
+      <c r="F72" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="55"/>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
@@ -4582,12 +4595,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4619,8 +4632,8 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4656,12 +4669,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4669,10 +4682,7 @@
       </c>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
-      <c r="F75" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F75" s="55"/>
       <c r="G75" s="55"/>
       <c r="H75" s="55"/>
       <c r="I75" s="55"/>
@@ -4696,8 +4706,8 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -4710,8 +4720,8 @@
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="F76" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G76" s="55"/>
       <c r="H76" s="55"/>
@@ -4736,20 +4746,23 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
+      <c r="F77" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="55"/>
       <c r="H77" s="55"/>
       <c r="I77" s="55"/>
@@ -4773,16 +4786,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
@@ -4810,12 +4823,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4847,12 +4860,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4888,8 +4901,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4921,12 +4934,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4958,12 +4971,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4995,12 +5008,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5032,12 +5045,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5069,12 +5082,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5082,10 +5095,7 @@
       </c>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
-      <c r="F86" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F86" s="55"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
       <c r="I86" s="55"/>
@@ -5109,12 +5119,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5122,7 +5132,10 @@
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
+      <c r="F87" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G87" s="55"/>
       <c r="H87" s="55"/>
       <c r="I87" s="55"/>
@@ -5146,12 +5159,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B88" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C88" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5183,12 +5196,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B89" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
       </c>
       <c r="C89" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5224,8 +5237,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B90" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5233,10 +5246,7 @@
       </c>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
-      <c r="F90" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F90" s="55"/>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
       <c r="I90" s="55"/>
@@ -5260,12 +5270,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5274,8 +5284,8 @@
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="F91" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G91" s="55"/>
       <c r="H91" s="55"/>
@@ -5300,8 +5310,8 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B92" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -5314,8 +5324,8 @@
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
       <c r="F92" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G92" s="55"/>
       <c r="H92" s="55"/>
@@ -5340,12 +5350,12 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B93" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C93" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5353,7 +5363,10 @@
       </c>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
+      <c r="F93" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G93" s="55"/>
       <c r="H93" s="55"/>
       <c r="I93" s="55"/>
@@ -5377,12 +5390,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B94" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C94" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5414,20 +5427,20 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B95" s="55"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B95" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C95" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
-      <c r="F95" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F95" s="55"/>
       <c r="G95" s="55"/>
       <c r="H95" s="55"/>
       <c r="I95" s="55"/>
@@ -5451,8 +5464,8 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B96" s="55"/>
       <c r="C96" s="55" t="str">
@@ -5462,8 +5475,8 @@
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G96" s="55"/>
       <c r="H96" s="55"/>
@@ -5488,20 +5501,20 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B97" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B97" s="55"/>
       <c r="C97" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
+      <c r="F97" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G97" s="55"/>
       <c r="H97" s="55"/>
       <c r="I97" s="55"/>
@@ -5525,12 +5538,12 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B98" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C98" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5562,12 +5575,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B99" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C99" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5599,23 +5612,20 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
-      <c r="F100" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F100" s="55"/>
       <c r="G100" s="55"/>
       <c r="H100" s="55"/>
       <c r="I100" s="55"/>
@@ -5639,12 +5649,12 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
       </c>
       <c r="C101" s="55" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5652,7 +5662,10 @@
       </c>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
+      <c r="F101" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="55"/>
       <c r="H101" s="55"/>
       <c r="I101" s="55"/>
@@ -5676,16 +5689,16 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B102" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C102" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
@@ -5713,23 +5726,20 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B103" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C103" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
-      <c r="F103" s="55" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F103" s="55"/>
       <c r="G103" s="55"/>
       <c r="H103" s="55"/>
       <c r="I103" s="55"/>
@@ -5752,12 +5762,24 @@
       <c r="Z103" s="55"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="55"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="55"/>
+      <c r="A104" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="55"/>
       <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
+      <c r="F104" s="55" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="55"/>
       <c r="H104" s="55"/>
       <c r="I104" s="55"/>

--- a/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
+++ b/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Ql58kumbZd+KLHkKV63ArWcKzHBsVHo/pXG3NPLwE9k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="B4veUSZlvY/pyf6sfblXckepzFHZwjnfY+vQOI9+MbY="/>
     </ext>
   </extLst>
 </workbook>
@@ -1643,34 +1643,18 @@
       <c r="M15" s="21"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -1682,7 +1666,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4 D6:D8">
@@ -1691,7 +1675,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5">
       <formula1>Keywords!$A$2:$A35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A15">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
@@ -1700,8 +1684,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12">
       <formula1>Keywords!$A$2:$A173</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3 D9:D16">
-      <formula1>Keywords!$A$2:$A16</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3 D9:D15">
+      <formula1>Keywords!$A$2:$A15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6">
       <formula1>Keywords!$A$2:$A166</formula1>
@@ -1709,7 +1693,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4 H7 H9:H11">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H15">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
+++ b/config/testcases/Report_BE.PD01Dialogue(Clone).xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="Ql58kumbZd+KLHkKV63ArWcKzHBsVHo/pXG3NPLwE9k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="gOp5uk0IkE1wmzTjT1oncOCAZ3ZRU4DyBImir/WpoxE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>TCID</t>
   </si>
@@ -171,7 +171,7 @@
     <t>getAudiosSourceByTime</t>
   </si>
   <si>
-    <t>Managers/SoundManager/FxSource,15</t>
+    <t>Managers/SoundManager/FxSource,60</t>
   </si>
   <si>
     <t>$.act[?(@.game_name=="BE.PD01Dialogue(Clone)")].turn[?(@.order==$.order)].word[?(@.type=='question')].audio[*].file_path</t>
@@ -198,27 +198,6 @@
     <t>$.act[?(@.game_name=="BE.PD01Dialogue(Clone)")].turn[?(@.order==$.order)].word[?(@.type=='answer')].text</t>
   </si>
   <si>
-    <t>DĐỢi ghi âm xuất hiện</t>
-  </si>
-  <si>
-    <t>waitForObject</t>
-  </si>
-  <si>
-    <t>Enable micro,30</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Click ghi âm</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>Enable micro,Button,onClick()</t>
-  </si>
-  <si>
     <t>Next turn</t>
   </si>
   <si>
@@ -237,10 +216,16 @@
     <t>Đợi next game xuất hiện</t>
   </si>
   <si>
+    <t>waitForObject</t>
+  </si>
+  <si>
     <t>BEPD01ButtonNextGame,30</t>
   </si>
   <si>
     <t>Click next game</t>
+  </si>
+  <si>
+    <t>click</t>
   </si>
   <si>
     <t>BEPD01ButtonNextGame,Button,onClick()</t>
@@ -259,6 +244,9 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>$.act[0].turn.length()</t>
@@ -485,13 +473,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -504,7 +485,14 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1109,7 +1097,7 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="4"/>
@@ -1475,25 +1463,25 @@
         <v>22</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="38" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="38"/>
+      <c r="G10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="42"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
@@ -1503,97 +1491,97 @@
         <v>22</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="38"/>
+      <c r="G11" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="39"/>
+      <c r="K11" s="42"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" ht="27.0" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="40" t="s">
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="F12" s="17"/>
+      <c r="G12" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="D13" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="42" t="s">
+      <c r="E13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" ht="27.0" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C14" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>71</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="E14" s="28" t="s">
         <v>72</v>
@@ -1610,86 +1598,30 @@
       <c r="M14" s="21"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="19"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L14 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L14 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L16 M1:N1">
+  <conditionalFormatting sqref="L1:L14 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:H16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12:H14">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H5">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D6 D8">
@@ -1701,14 +1633,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9">
       <formula1>Keywords!$A$2:$A39</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A14">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12:H13">
-      <formula1>Keywords!$A$2:$A173</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D5 H6 H8 D10:D16">
-      <formula1>Keywords!$A$2:$A16</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D5 H6 H8 D10:D14">
+      <formula1>Keywords!$A$2:$A14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7">
       <formula1>Keywords!$A$2:$A167</formula1>
@@ -1739,20 +1668,23 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="23.88"/>
     <col customWidth="1" min="3" max="3" width="9.13"/>
-    <col customWidth="1" min="4" max="4" width="24.63"/>
+    <col customWidth="1" min="4" max="5" width="24.63"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1761,15 +1693,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="47">
         <v>1.0</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="48"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -1793,6 +1725,7 @@
       <c r="Z2" s="48"/>
       <c r="AA2" s="48"/>
       <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4485,28 +4418,25 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isVideoplay")</f>
+        <v>isVideoplay</v>
       </c>
       <c r="B70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C70" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="E70" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"true,false")</f>
+        <v>true,false</v>
+      </c>
       <c r="F70" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dựa vào value time &gt;0 ==&gt; true")</f>
+        <v>dựa vào value time &gt;0 ==&gt; true</v>
       </c>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
@@ -4535,13 +4465,25 @@
         <v>getVideoUrl</v>
       </c>
       <c r="B71" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C71" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
+      </c>
+      <c r="C71" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D71" s="52"/>
       <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
+      <c r="F71" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
+      </c>
       <c r="G71" s="52"/>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -4565,17 +4507,14 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B72" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
-      </c>
-      <c r="C72" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C72" s="52"/>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
       <c r="F72" s="52"/>
@@ -4602,26 +4541,20 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D73" s="52"/>
       <c r="E73" s="52"/>
-      <c r="F73" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
-      </c>
+      <c r="F73" s="52"/>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -4645,22 +4578,25 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D74" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D74" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E74" s="52"/>
       <c r="F74" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
@@ -4685,12 +4621,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
-        <v>returnPathReplaceVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B75" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
-        <v>string, replaceStr</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C75" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4698,7 +4634,10 @@
       </c>
       <c r="D75" s="52"/>
       <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
+      <c r="F75" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
       <c r="I75" s="52"/>
@@ -4722,12 +4661,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
-        <v>returnPathFullName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B76" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C76" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4759,8 +4698,8 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
-        <v>returnPathFullPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B77" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
@@ -4796,12 +4735,12 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C78" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4809,10 +4748,7 @@
       </c>
       <c r="D78" s="52"/>
       <c r="E78" s="52"/>
-      <c r="F78" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F78" s="52"/>
       <c r="G78" s="52"/>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -4836,8 +4772,8 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B79" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
@@ -4850,8 +4786,8 @@
       <c r="D79" s="52"/>
       <c r="E79" s="52"/>
       <c r="F79" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
       </c>
       <c r="G79" s="52"/>
       <c r="H79" s="52"/>
@@ -4876,20 +4812,23 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B80" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C80" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
+      <c r="F80" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G80" s="52"/>
       <c r="H80" s="52"/>
       <c r="I80" s="52"/>
@@ -4913,16 +4852,16 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B81" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C81" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D81" s="52"/>
       <c r="E81" s="52"/>
@@ -4950,12 +4889,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B82" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C82" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4987,8 +4926,8 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dragUp")</f>
-        <v>dragUp</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B83" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
@@ -5024,12 +4963,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dragUp")</f>
+        <v>dragUp</v>
       </c>
       <c r="B84" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C84" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5065,8 +5004,8 @@
         <v>returnChooseTopic</v>
       </c>
       <c r="B85" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C85" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5098,12 +5037,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B86" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C86" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5135,12 +5074,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B87" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C87" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5172,12 +5111,12 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B88" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C88" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5209,12 +5148,12 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B89" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C89" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5246,12 +5185,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
-        <v>setVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B90" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
-        <v>key(exist),value</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C90" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5259,10 +5198,7 @@
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="52"/>
-      <c r="F90" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gán giá trị cho biến index trong variable file ")</f>
-        <v>gán giá trị cho biến index trong variable file </v>
-      </c>
+      <c r="F90" s="52"/>
       <c r="G90" s="52"/>
       <c r="H90" s="52"/>
       <c r="I90" s="52"/>
@@ -5286,12 +5222,12 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
-        <v>addVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
       </c>
       <c r="B91" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
-        <v>key,add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
       </c>
       <c r="C91" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5299,7 +5235,10 @@
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="52"/>
-      <c r="F91" s="52"/>
+      <c r="F91" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gán giá trị cho biến index trong variable file ")</f>
+        <v>gán giá trị cho biến index trong variable file </v>
+      </c>
       <c r="G91" s="52"/>
       <c r="H91" s="52"/>
       <c r="I91" s="52"/>
@@ -5323,12 +5262,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
+        <v>addVariableFile</v>
       </c>
       <c r="B92" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
+        <v>key,add</v>
       </c>
       <c r="C92" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5364,8 +5303,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B93" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C93" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5373,10 +5312,7 @@
       </c>
       <c r="D93" s="52"/>
       <c r="E93" s="52"/>
-      <c r="F93" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F93" s="52"/>
       <c r="G93" s="52"/>
       <c r="H93" s="52"/>
       <c r="I93" s="52"/>
@@ -5400,12 +5336,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C94" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5414,8 +5350,8 @@
       <c r="D94" s="52"/>
       <c r="E94" s="52"/>
       <c r="F94" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G94" s="52"/>
       <c r="H94" s="52"/>
@@ -5440,8 +5376,8 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B95" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -5454,8 +5390,8 @@
       <c r="D95" s="52"/>
       <c r="E95" s="52"/>
       <c r="F95" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G95" s="52"/>
       <c r="H95" s="52"/>
@@ -5480,12 +5416,12 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B96" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C96" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5493,7 +5429,10 @@
       </c>
       <c r="D96" s="52"/>
       <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
+      <c r="F96" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G96" s="52"/>
       <c r="H96" s="52"/>
       <c r="I96" s="52"/>
@@ -5517,12 +5456,12 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B97" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C97" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5554,20 +5493,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B98" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B98" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C98" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D98" s="52"/>
       <c r="E98" s="52"/>
-      <c r="F98" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F98" s="52"/>
       <c r="G98" s="52"/>
       <c r="H98" s="52"/>
       <c r="I98" s="52"/>
@@ -5591,8 +5530,8 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B99" s="52"/>
       <c r="C99" s="52" t="str">
@@ -5602,8 +5541,8 @@
       <c r="D99" s="52"/>
       <c r="E99" s="52"/>
       <c r="F99" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G99" s="52"/>
       <c r="H99" s="52"/>
@@ -5628,20 +5567,20 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B100" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B100" s="52"/>
       <c r="C100" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D100" s="52"/>
       <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
+      <c r="F100" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G100" s="52"/>
       <c r="H100" s="52"/>
       <c r="I100" s="52"/>
@@ -5665,12 +5604,12 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B101" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C101" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5702,12 +5641,12 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B102" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C102" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5739,23 +5678,20 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B103" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
-        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C103" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D103" s="52"/>
       <c r="E103" s="52"/>
-      <c r="F103" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F103" s="52"/>
       <c r="G103" s="52"/>
       <c r="H103" s="52"/>
       <c r="I103" s="52"/>
@@ -5779,12 +5715,12 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B104" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C104" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5792,7 +5728,10 @@
       </c>
       <c r="D104" s="52"/>
       <c r="E104" s="52"/>
-      <c r="F104" s="52"/>
+      <c r="F104" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G104" s="52"/>
       <c r="H104" s="52"/>
       <c r="I104" s="52"/>
@@ -5816,16 +5755,16 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B105" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C105" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D105" s="52"/>
       <c r="E105" s="52"/>
@@ -5853,23 +5792,20 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B106" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
-        <v>element,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C106" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D106" s="52"/>
       <c r="E106" s="52"/>
-      <c r="F106" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F106" s="52"/>
       <c r="G106" s="52"/>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
@@ -5893,22 +5829,22 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
-        <v>comPairImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
       </c>
       <c r="B107" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C107" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D107" s="52"/>
       <c r="E107" s="52"/>
       <c r="F107" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
       </c>
       <c r="G107" s="52"/>
       <c r="H107" s="52"/>
@@ -5933,8 +5869,8 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
-        <v>comPairWordHasImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
       </c>
       <c r="B108" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
@@ -5973,22 +5909,22 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
-        <v>skipLesson</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
+        <v>comPairWordHasImage</v>
       </c>
       <c r="B109" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C109" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D109" s="52"/>
       <c r="E109" s="52"/>
       <c r="F109" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
-        <v>sử dụng với những nút có thể onclick()</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
       </c>
       <c r="G109" s="52"/>
       <c r="H109" s="52"/>
@@ -6013,17 +5949,23 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
-      </c>
-      <c r="B110" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B110" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
       <c r="C110" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D110" s="52"/>
       <c r="E110" s="52"/>
-      <c r="F110" s="52"/>
+      <c r="F110" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
       <c r="I110" s="52"/>
@@ -6047,23 +5989,17 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
-        <v>setVariableTypeOfStringFile</v>
-      </c>
-      <c r="B111" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,value")</f>
-        <v>key,value</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
+      </c>
+      <c r="B111" s="52"/>
       <c r="C111" s="52" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D111" s="52"/>
       <c r="E111" s="52"/>
-      <c r="F111" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value cho bieens vowis type string")</f>
-        <v>set value cho bieens vowis type string</v>
-      </c>
+      <c r="F111" s="52"/>
       <c r="G111" s="52"/>
       <c r="H111" s="52"/>
       <c r="I111" s="52"/>
@@ -6087,19 +6023,22 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getValueOfVariable")</f>
-        <v>getValueOfVariable</v>
-      </c>
-      <c r="B112" s="52"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
+      <c r="B112" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,value")</f>
+        <v>key,value</v>
+      </c>
       <c r="C112" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D112" s="52"/>
       <c r="E112" s="52"/>
       <c r="F112" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value in variable file")</f>
-        <v>return value in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value cho bieens vowis type string")</f>
+        <v>set value cho bieens vowis type string</v>
       </c>
       <c r="G112" s="52"/>
       <c r="H112" s="52"/>
@@ -6124,20 +6063,20 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPathStartWith")</f>
-        <v>getPathStartWith</v>
-      </c>
-      <c r="B113" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"start with,element,component,key,index,expect")</f>
-        <v>start with,element,component,key,index,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getValueOfVariable")</f>
+        <v>getValueOfVariable</v>
+      </c>
+      <c r="B113" s="52"/>
       <c r="C113" s="52" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D113" s="52"/>
       <c r="E113" s="52"/>
-      <c r="F113" s="52"/>
+      <c r="F113" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value in variable file")</f>
+        <v>return value in variable file</v>
+      </c>
       <c r="G113" s="52"/>
       <c r="H113" s="52"/>
       <c r="I113" s="52"/>
@@ -6160,9 +6099,18 @@
       <c r="Z113" s="52"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="52"/>
-      <c r="B114" s="52"/>
-      <c r="C114" s="52"/>
+      <c r="A114" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPathStartWith")</f>
+        <v>getPathStartWith</v>
+      </c>
+      <c r="B114" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"start with,element,component,key,index,expect")</f>
+        <v>start with,element,component,key,index,expect</v>
+      </c>
+      <c r="C114" s="52" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D114" s="52"/>
       <c r="E114" s="52"/>
       <c r="F114" s="52"/>
